--- a/output/fit_clients/fit_round_263.xlsx
+++ b/output/fit_clients/fit_round_263.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1864941895.391329</v>
+        <v>1653057513.323759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1047840394329397</v>
+        <v>0.08785941179573541</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02901894614460443</v>
+        <v>0.02911736239835764</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>932470925.1561296</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2593853836.975885</v>
+        <v>2478475504.432106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1333380220048831</v>
+        <v>0.1301502842749944</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03691048026404733</v>
+        <v>0.03514169362186156</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1296927050.510143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4217800022.261783</v>
+        <v>3638074375.811297</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1633099179801774</v>
+        <v>0.1402458897712349</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03210677564619992</v>
+        <v>0.02819242807494785</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>95</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2108900040.729064</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2856535989.325448</v>
+        <v>2813764782.200515</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08421837131056259</v>
+        <v>0.07224946849792196</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03506678320758646</v>
+        <v>0.0489213552824382</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1428268074.005654</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2163079380.940554</v>
+        <v>2117488893.855747</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1127833947563872</v>
+        <v>0.1364274019646611</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0468741443140393</v>
+        <v>0.04715444461858113</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>43</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1081539702.411065</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3029644507.836413</v>
+        <v>2949133090.406405</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07634650065075457</v>
+        <v>0.06265657425301198</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04786892222083015</v>
+        <v>0.03203471801223359</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>83</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1514822215.938782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3043585021.725278</v>
+        <v>3188809072.546914</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1705758482724157</v>
+        <v>0.1523700340672637</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03184005200015638</v>
+        <v>0.02952048097876532</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>84</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1521792572.824772</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1736479202.36781</v>
+        <v>2176658441.60703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1288112166324887</v>
+        <v>0.1625776638226658</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02348495646919123</v>
+        <v>0.02437963590659919</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>868239664.3529472</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4697062210.344211</v>
+        <v>5531006914.319934</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1925190914323385</v>
+        <v>0.1411405349420967</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04195977962558831</v>
+        <v>0.04984768117182972</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>111</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2348531181.054654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4161811311.930055</v>
+        <v>3488691049.722459</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1231666311944181</v>
+        <v>0.1262495761936723</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0450111267747868</v>
+        <v>0.04006060068176447</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>109</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2080905679.926181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2892585618.130226</v>
+        <v>2436402733.020093</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1351306930794702</v>
+        <v>0.1983889532194941</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03755269163007615</v>
+        <v>0.03553460340012812</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1446292817.23689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3651477651.57134</v>
+        <v>4637843866.680671</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08414640614633538</v>
+        <v>0.08038659752038987</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02202429623627904</v>
+        <v>0.02210098883687253</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1825738898.412214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2915760386.977895</v>
+        <v>2630340923.072948</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1767929969156107</v>
+        <v>0.138591457801102</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04430349106880235</v>
+        <v>0.03398253360319554</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1457880234.01416</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1671393494.810073</v>
+        <v>1229448534.504057</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07672354266653582</v>
+        <v>0.07729198513961479</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04670932057767702</v>
+        <v>0.03035086860292565</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>835696871.7608552</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2595994394.136438</v>
+        <v>1809594880.351845</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09963695303058163</v>
+        <v>0.08249774440276605</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03598323118676133</v>
+        <v>0.03681275752952928</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1297997219.29925</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4857430025.68983</v>
+        <v>3366531715.69026</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1708367487977061</v>
+        <v>0.1281058018715298</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0504220052846277</v>
+        <v>0.03469873369716539</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>77</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2428715005.079785</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3963940302.684567</v>
+        <v>3156529387.310435</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1388332637074125</v>
+        <v>0.1680159384350835</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0306946670100825</v>
+        <v>0.03008375411686144</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>86</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1981970111.783696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>859384245.177382</v>
+        <v>1378399447.601135</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1423607699086195</v>
+        <v>0.1302660138294521</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02571245676079458</v>
+        <v>0.01743287277268431</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>429692117.5999561</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1888180881.19098</v>
+        <v>1739552247.117054</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1198319007634816</v>
+        <v>0.1273349312161934</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02846459025990405</v>
+        <v>0.0198068658791262</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>39</v>
-      </c>
-      <c r="J20" t="n">
-        <v>944090478.8296467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2030855667.885157</v>
+        <v>1778626424.101593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06221501063246408</v>
+        <v>0.08688398610502421</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02823691441488515</v>
+        <v>0.03780726654994871</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1015427866.938077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3800354681.089757</v>
+        <v>2534405037.608124</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1351677465879532</v>
+        <v>0.1039535492292296</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03694281736988209</v>
+        <v>0.03746695020430815</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>72</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1900177354.143314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1456535936.317616</v>
+        <v>1086186888.940317</v>
       </c>
       <c r="F23" t="n">
-        <v>0.147292555410243</v>
+        <v>0.1856794319668935</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0539118484759773</v>
+        <v>0.04333586898901622</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>728267961.4303091</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4135976370.416364</v>
+        <v>3909413085.246927</v>
       </c>
       <c r="F24" t="n">
-        <v>0.102043623439577</v>
+        <v>0.1448014884491409</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02328030305794362</v>
+        <v>0.03712611182614335</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>77</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2067988144.05071</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1097119677.784602</v>
+        <v>1459891779.615642</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09734261247868221</v>
+        <v>0.08573526150219456</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02576624044834716</v>
+        <v>0.02300771850244582</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>548559880.5192932</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>965911990.5957375</v>
+        <v>1225575657.317945</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1078571509338806</v>
+        <v>0.1175931416489368</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02611000733363721</v>
+        <v>0.02807056123340042</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>482955959.0397565</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3841530050.213176</v>
+        <v>4655153032.890704</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09600775117725024</v>
+        <v>0.1214318528330819</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01972317262204085</v>
+        <v>0.01783890415305351</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1920765043.153901</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2802590774.824232</v>
+        <v>3634264919.947471</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09468231003008931</v>
+        <v>0.1018054296304937</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04029795894811107</v>
+        <v>0.03397128687985508</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1401295381.497867</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5690566330.996233</v>
+        <v>5709956518.394188</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1445283142752671</v>
+        <v>0.1273530427241338</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03791159632463788</v>
+        <v>0.04463985805300036</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>116</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2845283065.174461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2222057662.67859</v>
+        <v>1890552228.238646</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1371039273492849</v>
+        <v>0.1246308593528654</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03022669452845175</v>
+        <v>0.03857416462791327</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1111028894.068037</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1394843473.551766</v>
+        <v>1392410774.215505</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07715029721073416</v>
+        <v>0.06786089094992766</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05026084085734038</v>
+        <v>0.03201696315007719</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>697421642.3695606</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1390152150.708225</v>
+        <v>1668086016.990834</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07631686787659561</v>
+        <v>0.1026553847813707</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02353109705735977</v>
+        <v>0.02676919057399782</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>695076120.9241301</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2146282324.254225</v>
+        <v>3060267098.664739</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1495442358816683</v>
+        <v>0.1299017049417528</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03853432806928141</v>
+        <v>0.05306135854579415</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>81</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1073141230.437561</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1383995468.735358</v>
+        <v>1263543091.437869</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07504357265837752</v>
+        <v>0.119641232793678</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02786131698703579</v>
+        <v>0.02217217963637184</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>691997709.2880265</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1161922174.454744</v>
+        <v>1093344014.220771</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1150073439984126</v>
+        <v>0.09061526449643974</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03919566166764497</v>
+        <v>0.03083742728147913</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>580961070.2970501</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2477947210.14639</v>
+        <v>2710404624.518038</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1118508578503251</v>
+        <v>0.1531623602533266</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02831688196663782</v>
+        <v>0.02590103412212643</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>65</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1238973628.829318</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2647824374.731025</v>
+        <v>2111693164.890024</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1016774512411454</v>
+        <v>0.07133344784098809</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02893665080721859</v>
+        <v>0.03534136831731939</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>68</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1323912303.738589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1620503799.732477</v>
+        <v>2069238490.156165</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1192177789972161</v>
+        <v>0.09476795434596796</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03943691618349583</v>
+        <v>0.03679618508085031</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>810251932.0937155</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2035066906.438629</v>
+        <v>1929898658.633084</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1862235397888336</v>
+        <v>0.1757672613265767</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03029852711469042</v>
+        <v>0.03130244804135418</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1017533442.41254</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1635978382.635426</v>
+        <v>1743166804.037768</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1313950755601902</v>
+        <v>0.1536752381819692</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04476698403922708</v>
+        <v>0.04982294245290639</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>817989123.4688311</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2661956155.013976</v>
+        <v>2415569795.736509</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1110197812534842</v>
+        <v>0.121974679261532</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04225426397440903</v>
+        <v>0.03191682196213735</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>62</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1330978086.904981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3405800651.453372</v>
+        <v>4267318314.163253</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0834989816602319</v>
+        <v>0.09159715512672943</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03192691846054959</v>
+        <v>0.02856395209735302</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1702900314.115144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2021039583.172452</v>
+        <v>1940133015.591577</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1401864007086935</v>
+        <v>0.1299141434158168</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01893086966346962</v>
+        <v>0.02247925141172416</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>94</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1010519888.405139</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1836748424.46318</v>
+        <v>1884124159.091794</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06744744016183747</v>
+        <v>0.09489443706951348</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02948300282121615</v>
+        <v>0.03711624287752162</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>918374285.9918797</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1961062820.160058</v>
+        <v>2299839996.220077</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1481915619284421</v>
+        <v>0.1924714403770468</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04074977563798538</v>
+        <v>0.04536595609097404</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>980531397.0205345</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3765865301.979932</v>
+        <v>4662169443.654632</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1503041749925378</v>
+        <v>0.1508088778875236</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03736246927632792</v>
+        <v>0.05397777613411022</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>94</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1882932607.146636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3726723604.785489</v>
+        <v>4887201376.833126</v>
       </c>
       <c r="F47" t="n">
-        <v>0.134354549213741</v>
+        <v>0.156935308659867</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05225870503374309</v>
+        <v>0.05730001565496396</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>70</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1863361786.044685</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4370289397.837796</v>
+        <v>2941391328.773078</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08532673104876314</v>
+        <v>0.06849076973306496</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03261826466787952</v>
+        <v>0.03688787746780476</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2185144711.783558</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1730190795.80767</v>
+        <v>1239516170.02224</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1764015401281642</v>
+        <v>0.15299574930407</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03236611875565119</v>
+        <v>0.02822500225223034</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>865095394.1453614</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3201361289.696064</v>
+        <v>3451340694.831809</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1474426950226832</v>
+        <v>0.109731182987073</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05336050214687696</v>
+        <v>0.0430398364346439</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>90</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1600680690.336304</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1541956654.803301</v>
+        <v>1101015217.801487</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1543853630050022</v>
+        <v>0.1502921818678426</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04431956027049874</v>
+        <v>0.03873256973235357</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>770978323.5371796</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4437707655.102602</v>
+        <v>3484686334.341392</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1019920448341623</v>
+        <v>0.09346105785922665</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06118523162698877</v>
+        <v>0.04631368665558077</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>108</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2218853858.261881</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3362898009.354365</v>
+        <v>2846442474.372094</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1964447678054249</v>
+        <v>0.1241483521112248</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03062490729296925</v>
+        <v>0.03133006747196001</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>75</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1681449012.071398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3850873699.040322</v>
+        <v>4248093087.364101</v>
       </c>
       <c r="F54" t="n">
-        <v>0.144721819945977</v>
+        <v>0.1335876020124287</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03562696242267227</v>
+        <v>0.05220335941904782</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>86</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1925436901.858373</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3377670748.837108</v>
+        <v>3894726572.076727</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086624313264758</v>
+        <v>0.1473094324440677</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02582804572550705</v>
+        <v>0.02720925820460269</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1688835321.856106</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1171314853.035286</v>
+        <v>1746095794.465765</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1483931681700695</v>
+        <v>0.1382156665475178</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03860758795517092</v>
+        <v>0.03580951783434219</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>585657517.4930185</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4125525699.00256</v>
+        <v>3392702267.713759</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1277257654356436</v>
+        <v>0.1577997559071487</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0207936458072211</v>
+        <v>0.02571057504203329</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>83</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2062762948.399672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1165702811.024901</v>
+        <v>1265403263.104875</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1689411238228498</v>
+        <v>0.1593692511574054</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02774451258761952</v>
+        <v>0.0242048118566226</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>582851467.1487641</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4396522462.984276</v>
+        <v>3349881143.667954</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1286747835716335</v>
+        <v>0.07876188208310476</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0458055385612458</v>
+        <v>0.04663304082356286</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2198261188.305579</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3643476406.658236</v>
+        <v>2998124214.922794</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1567357402287804</v>
+        <v>0.1558981861251719</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02499591483995842</v>
+        <v>0.02580938603810248</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>82</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1821738341.171763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2430488825.147613</v>
+        <v>3190626536.642046</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1791147178877335</v>
+        <v>0.1165919381173403</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03091765191489131</v>
+        <v>0.02257794829019825</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>91</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1215244446.745856</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1766284598.65674</v>
+        <v>1576981711.003005</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1726810678395163</v>
+        <v>0.1440181681391917</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04581155568080417</v>
+        <v>0.04959780009320744</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>883142322.3003492</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3654952670.320751</v>
+        <v>5202239811.296778</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09162335629259748</v>
+        <v>0.098117099590446</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04564847720147289</v>
+        <v>0.029862236362292</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>75</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1827476412.953551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4113877111.569212</v>
+        <v>4153197363.149536</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1321167562849512</v>
+        <v>0.1222364799448332</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03181619488899205</v>
+        <v>0.0295051194729679</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>82</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2056938599.640913</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3621751036.816679</v>
+        <v>4440197046.601273</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1137626262187821</v>
+        <v>0.1415696433377294</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03016825916680571</v>
+        <v>0.02121618901305011</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>94</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1810875559.562953</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4065880757.134163</v>
+        <v>4453376346.799444</v>
       </c>
       <c r="F66" t="n">
-        <v>0.100267898103494</v>
+        <v>0.1311356497742432</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03130584925076011</v>
+        <v>0.03710371639579272</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>76</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2032940355.675018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2949437904.110121</v>
+        <v>2781639312.997303</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1002971058930947</v>
+        <v>0.08739227651228772</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0401834676902631</v>
+        <v>0.04499564888838713</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>84</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1474718974.62834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4146584484.044942</v>
+        <v>5662408151.897763</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1374505809710244</v>
+        <v>0.1118398562113558</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04526015829665881</v>
+        <v>0.04653662193114824</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2073292246.696384</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1773690834.187739</v>
+        <v>1612987642.517514</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1364683024829956</v>
+        <v>0.1616718072323174</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06007519479172108</v>
+        <v>0.04933867214149738</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>886845392.7826997</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3078843237.558507</v>
+        <v>3057421349.037375</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09362143744836611</v>
+        <v>0.07243519268191279</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04933208055519187</v>
+        <v>0.0398601705294107</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>75</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1539421600.967474</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4622640759.356849</v>
+        <v>5145333230.406729</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1575721833438954</v>
+        <v>0.1841521686935393</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03146514784147595</v>
+        <v>0.02402433770982451</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>96</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2311320457.208777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2195846470.501632</v>
+        <v>1443760630.091786</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07491326639773969</v>
+        <v>0.08932831531884851</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03206242051155356</v>
+        <v>0.034996507270563</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1097923150.001526</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2166435926.304217</v>
+        <v>3261145091.246193</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06901492510254828</v>
+        <v>0.1084510751233601</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04289635652106397</v>
+        <v>0.05175135123915023</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>101</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1083218035.45644</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3784704800.200585</v>
+        <v>3101703923.812437</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1359322344090606</v>
+        <v>0.1338043433385742</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03377470905216664</v>
+        <v>0.02898352000691202</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>90</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1892352397.667901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1528326676.767711</v>
+        <v>2087041670.420158</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1107685823667851</v>
+        <v>0.1378790729720714</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03746156237254821</v>
+        <v>0.03412737135230592</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>764163346.7821581</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4824840321.295576</v>
+        <v>5200933678.137624</v>
       </c>
       <c r="F76" t="n">
-        <v>0.10491833271398</v>
+        <v>0.1067329024221975</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02249491905120236</v>
+        <v>0.02187931235634515</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2412420179.969903</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1585700389.021298</v>
+        <v>2079445807.83682</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1551000471174352</v>
+        <v>0.1826381174688669</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02452601109247822</v>
+        <v>0.03021897658169121</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>792850194.8786557</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3522154634.431618</v>
+        <v>3051623454.708915</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09561081002739626</v>
+        <v>0.09723337581017368</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03846283283792429</v>
+        <v>0.0565001221389083</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>91</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1761077317.134794</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1252632920.233612</v>
+        <v>1749535345.561812</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1606710507707201</v>
+        <v>0.1537850250737233</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02622531319291068</v>
+        <v>0.0267539824055032</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>626316451.0250295</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4924657347.25625</v>
+        <v>3630658706.39456</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08691790822606936</v>
+        <v>0.08426058258944021</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02692554314348929</v>
+        <v>0.03657037064311029</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>55</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2462328719.070489</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3414150053.475198</v>
+        <v>5028021073.119356</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1285835364785159</v>
+        <v>0.1180798615600725</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02222573433581773</v>
+        <v>0.03175677187219574</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1707074968.20508</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4119342438.303156</v>
+        <v>5298124250.268278</v>
       </c>
       <c r="F82" t="n">
-        <v>0.142100794312202</v>
+        <v>0.137689744874674</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02483352843199626</v>
+        <v>0.01832090816010153</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>94</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2059671252.257973</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2380612691.165788</v>
+        <v>1675150223.907718</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1377277758337498</v>
+        <v>0.1123764137234048</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03646485343228296</v>
+        <v>0.03378354419262137</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1190306378.280339</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2365246202.224844</v>
+        <v>2069324229.309099</v>
       </c>
       <c r="F84" t="n">
-        <v>0.103674587999363</v>
+        <v>0.1015140606642499</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04291148511200429</v>
+        <v>0.04694824973533298</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1182623052.631414</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2294995539.669359</v>
+        <v>3297916840.38958</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1741072457842804</v>
+        <v>0.1807879056381899</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03889499583299313</v>
+        <v>0.05652671827115319</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>99</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1147497752.167011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2430021409.953777</v>
+        <v>1705642427.755663</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1207087310810555</v>
+        <v>0.1615504945993212</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02080177246327415</v>
+        <v>0.02171809676405508</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1215010792.403294</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1007650451.018313</v>
+        <v>1265798087.047831</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1815120712547846</v>
+        <v>0.1246397650208879</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0331244017939903</v>
+        <v>0.03245467651659145</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>503825231.7927637</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2834123836.638877</v>
+        <v>3307770209.423346</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1088871725909412</v>
+        <v>0.1162966587713895</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02527409077905784</v>
+        <v>0.03738556297402714</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>103</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1417061932.361714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2192435334.684753</v>
+        <v>2868482788.331949</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1120040560974414</v>
+        <v>0.1294968786402211</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02832765985748507</v>
+        <v>0.03345564907989618</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>89</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1096217764.634437</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1728806481.283097</v>
+        <v>1622755049.38118</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1339027953992445</v>
+        <v>0.09006698845153935</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03761609862033016</v>
+        <v>0.05511291628647708</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>864403261.2451628</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1898794188.715214</v>
+        <v>1316948621.743289</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1624933344885748</v>
+        <v>0.1609697097091079</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04005990391331826</v>
+        <v>0.0458948435026965</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>949397080.1248077</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2150528649.098772</v>
+        <v>2531684660.904179</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09655937256869325</v>
+        <v>0.104786510099863</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03123091945504007</v>
+        <v>0.04082042371872924</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>66</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1075264282.102524</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4383329548.907912</v>
+        <v>4033432813.593542</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1128058430308467</v>
+        <v>0.1290235128113597</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03868048556113597</v>
+        <v>0.0388476869286126</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2191664750.280162</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1658459045.14037</v>
+        <v>1969983378.592048</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1119849460183764</v>
+        <v>0.1544025368903938</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03061208605908051</v>
+        <v>0.03109104769696101</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>829229476.5112816</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3074600703.386699</v>
+        <v>2622355179.022344</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09846210918616977</v>
+        <v>0.1136410104346326</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0335429080893979</v>
+        <v>0.03343167746195421</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>63</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1537300346.019983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1451195375.04634</v>
+        <v>1533597258.882023</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1266617135234642</v>
+        <v>0.08711582872721699</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04341550099459089</v>
+        <v>0.04049396246208918</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>725597733.0772086</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4948927259.795922</v>
+        <v>5018206702.10629</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1537099332210621</v>
+        <v>0.1330201107477363</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02756796896380963</v>
+        <v>0.02396076039310028</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>84</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2474463762.590714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3819026261.220296</v>
+        <v>3829779712.774233</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1005021410703497</v>
+        <v>0.09196165753391115</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03240175286312415</v>
+        <v>0.0316320177611062</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>70</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1909513170.831975</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2112379892.992519</v>
+        <v>2241397464.415317</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1107167346378368</v>
+        <v>0.1084266056642709</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03439522438143386</v>
+        <v>0.02783834301233069</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>82</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1056189868.118971</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4737741151.664071</v>
+        <v>4008590739.966223</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1618510034273013</v>
+        <v>0.1581074424293233</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02694166022849823</v>
+        <v>0.02622093210161974</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>81</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2368870705.407223</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2601765420.492822</v>
+        <v>2800454648.444253</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2117683666957388</v>
+        <v>0.214692948382107</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04527836344387309</v>
+        <v>0.04075211644570724</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>105</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1300882746.675639</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_263.xlsx
+++ b/output/fit_clients/fit_round_263.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1653057513.323759</v>
+        <v>1559839027.535437</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08785941179573541</v>
+        <v>0.1143372462463277</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02911736239835764</v>
+        <v>0.0313090336144845</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2478475504.432106</v>
+        <v>2311666709.154986</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1301502842749944</v>
+        <v>0.1648939783348445</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03514169362186156</v>
+        <v>0.0440563688636474</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3638074375.811297</v>
+        <v>4880666759.641521</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1402458897712349</v>
+        <v>0.16628689346713</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02819242807494785</v>
+        <v>0.03125639880954548</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2813764782.200515</v>
+        <v>3449052168.037347</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07224946849792196</v>
+        <v>0.07316218423672596</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0489213552824382</v>
+        <v>0.03421487499153066</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2117488893.855747</v>
+        <v>2776972629.362472</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1364274019646611</v>
+        <v>0.1091920540091692</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04715444461858113</v>
+        <v>0.053003307963836</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2949133090.406405</v>
+        <v>2797808761.288396</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06265657425301198</v>
+        <v>0.08087231268526786</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03203471801223359</v>
+        <v>0.04947375938179994</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3188809072.546914</v>
+        <v>2877217481.542921</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1523700340672637</v>
+        <v>0.1414723946193967</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02952048097876532</v>
+        <v>0.02492404200440647</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2176658441.60703</v>
+        <v>2036802045.506634</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625776638226658</v>
+        <v>0.1859798414205157</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02437963590659919</v>
+        <v>0.03097389650874889</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5531006914.319934</v>
+        <v>3753798307.638332</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1411405349420967</v>
+        <v>0.2147036974906545</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04984768117182972</v>
+        <v>0.04204573964134695</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3488691049.722459</v>
+        <v>4171868036.765659</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1262495761936723</v>
+        <v>0.1199533256336319</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04006060068176447</v>
+        <v>0.0498838932207747</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2436402733.020093</v>
+        <v>2351108326.829628</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1983889532194941</v>
+        <v>0.1493905434492458</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03553460340012812</v>
+        <v>0.03769493713093301</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4637843866.680671</v>
+        <v>5325902071.243618</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08038659752038987</v>
+        <v>0.06500756161769677</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02210098883687253</v>
+        <v>0.02041432027344613</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2630340923.072948</v>
+        <v>3823461484.681586</v>
       </c>
       <c r="F14" t="n">
-        <v>0.138591457801102</v>
+        <v>0.1863850813965159</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03398253360319554</v>
+        <v>0.03053882364711022</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1229448534.504057</v>
+        <v>1508380671.032148</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07729198513961479</v>
+        <v>0.08997212204412418</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03035086860292565</v>
+        <v>0.04755494752722551</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1809594880.351845</v>
+        <v>2507465371.749438</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08249774440276605</v>
+        <v>0.08990193859024764</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03681275752952928</v>
+        <v>0.03669708284855091</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3366531715.69026</v>
+        <v>4448344805.991093</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1281058018715298</v>
+        <v>0.1347831719883323</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03469873369716539</v>
+        <v>0.03643068415166972</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3156529387.310435</v>
+        <v>2962646780.522123</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1680159384350835</v>
+        <v>0.1239081020665199</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03008375411686144</v>
+        <v>0.02934700562938942</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1378399447.601135</v>
+        <v>839599397.09438</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1302660138294521</v>
+        <v>0.1235170832507728</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01743287277268431</v>
+        <v>0.01743452781311618</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1739552247.117054</v>
+        <v>2264523714.662988</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1273349312161934</v>
+        <v>0.1029101016432705</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0198068658791262</v>
+        <v>0.02191418330291539</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1778626424.101593</v>
+        <v>1705014500.795137</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08688398610502421</v>
+        <v>0.08489929939526752</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03780726654994871</v>
+        <v>0.03298992864133771</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2534405037.608124</v>
+        <v>2550424266.381093</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1039535492292296</v>
+        <v>0.1425287891763485</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03746695020430815</v>
+        <v>0.04011112149633346</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1086186888.940317</v>
+        <v>1247559434.069408</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1856794319668935</v>
+        <v>0.1489465607957668</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04333586898901622</v>
+        <v>0.05207733774180757</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3909413085.246927</v>
+        <v>3896698462.137993</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1448014884491409</v>
+        <v>0.09604961834432119</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03712611182614335</v>
+        <v>0.03652076179863536</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1459891779.615642</v>
+        <v>1393926129.843046</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08573526150219456</v>
+        <v>0.09622837011620418</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02300771850244582</v>
+        <v>0.03048739710647189</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1225575657.317945</v>
+        <v>946343249.1959165</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1175931416489368</v>
+        <v>0.07763355433631756</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02807056123340042</v>
+        <v>0.02889690856577062</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4655153032.890704</v>
+        <v>3711218808.108816</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1214318528330819</v>
+        <v>0.1472765110557319</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01783890415305351</v>
+        <v>0.02619718157794952</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3634264919.947471</v>
+        <v>3823462276.568186</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1018054296304937</v>
+        <v>0.1399597865337244</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03397128687985508</v>
+        <v>0.04700461594273575</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5709956518.394188</v>
+        <v>4692388796.373405</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1273530427241338</v>
+        <v>0.1074079962611533</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04463985805300036</v>
+        <v>0.03834650408402406</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1890552228.238646</v>
+        <v>2279520159.381144</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1246308593528654</v>
+        <v>0.1130287676473891</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03857416462791327</v>
+        <v>0.03970335598894001</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1392410774.215505</v>
+        <v>1283184111.13189</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06786089094992766</v>
+        <v>0.0790275343291291</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03201696315007719</v>
+        <v>0.05223363981348313</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1668086016.990834</v>
+        <v>1815751914.851287</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1026553847813707</v>
+        <v>0.08718823508127864</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02676919057399782</v>
+        <v>0.03469023418152416</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3060267098.664739</v>
+        <v>2474095991.33888</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1299017049417528</v>
+        <v>0.1824309520443066</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05306135854579415</v>
+        <v>0.04979567457383566</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1263543091.437869</v>
+        <v>1033382805.299966</v>
       </c>
       <c r="F34" t="n">
-        <v>0.119641232793678</v>
+        <v>0.1115793565279429</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02217217963637184</v>
+        <v>0.02591388432195588</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1093344014.220771</v>
+        <v>1230690249.682276</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09061526449643974</v>
+        <v>0.1015546304678699</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03083742728147913</v>
+        <v>0.03192635590460183</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2710404624.518038</v>
+        <v>2022269054.119113</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1531623602533266</v>
+        <v>0.1202900748766816</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02590103412212643</v>
+        <v>0.02785037648822962</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2111693164.890024</v>
+        <v>2935760044.378418</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07133344784098809</v>
+        <v>0.1002914147773757</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03534136831731939</v>
+        <v>0.02596253146570106</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2069238490.156165</v>
+        <v>1743938519.731084</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09476795434596796</v>
+        <v>0.07623173282044077</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03679618508085031</v>
+        <v>0.0315345857312159</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1929898658.633084</v>
+        <v>2161694333.451691</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1757672613265767</v>
+        <v>0.1613016776006695</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03130244804135418</v>
+        <v>0.02544076504606332</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1743166804.037768</v>
+        <v>1275750939.347717</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1536752381819692</v>
+        <v>0.1372345781296412</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04982294245290639</v>
+        <v>0.05091513698635004</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2415569795.736509</v>
+        <v>1878027367.162068</v>
       </c>
       <c r="F41" t="n">
-        <v>0.121974679261532</v>
+        <v>0.1571768371098437</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03191682196213735</v>
+        <v>0.04279416535944831</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4267318314.163253</v>
+        <v>3989172728.777078</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09159715512672943</v>
+        <v>0.09860416046649061</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02856395209735302</v>
+        <v>0.04331254919691157</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1940133015.591577</v>
+        <v>2004934672.978131</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1299141434158168</v>
+        <v>0.1791308110422797</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02247925141172416</v>
+        <v>0.02293638534302746</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1884124159.091794</v>
+        <v>2284030772.210163</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09489443706951348</v>
+        <v>0.08535687999879639</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03711624287752162</v>
+        <v>0.03088221741849962</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2299839996.220077</v>
+        <v>1818599025.013783</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1924714403770468</v>
+        <v>0.1758931336052001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04536595609097404</v>
+        <v>0.05161046695994478</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4662169443.654632</v>
+        <v>4685272291.376655</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1508088778875236</v>
+        <v>0.1698549367723121</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05397777613411022</v>
+        <v>0.06063160620020414</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4887201376.833126</v>
+        <v>5073730536.910867</v>
       </c>
       <c r="F47" t="n">
-        <v>0.156935308659867</v>
+        <v>0.191671345392183</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05730001565496396</v>
+        <v>0.04692282740034165</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2941391328.773078</v>
+        <v>2907730686.213987</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06849076973306496</v>
+        <v>0.0912683739069123</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03688787746780476</v>
+        <v>0.03482537129416217</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1239516170.02224</v>
+        <v>1506994532.175797</v>
       </c>
       <c r="F49" t="n">
-        <v>0.15299574930407</v>
+        <v>0.1612077470527205</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02822500225223034</v>
+        <v>0.03233245904676793</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3451340694.831809</v>
+        <v>3990597385.546864</v>
       </c>
       <c r="F50" t="n">
-        <v>0.109731182987073</v>
+        <v>0.1438952549217989</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0430398364346439</v>
+        <v>0.03899085481200319</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1101015217.801487</v>
+        <v>1154634877.395141</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1502921818678426</v>
+        <v>0.1626539554622483</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03873256973235357</v>
+        <v>0.03709839205009793</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3484686334.341392</v>
+        <v>4220051309.047452</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09346105785922665</v>
+        <v>0.1161331248050554</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04631368665558077</v>
+        <v>0.0427675424181133</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2846442474.372094</v>
+        <v>2350504902.937698</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1241483521112248</v>
+        <v>0.1519131980046215</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03133006747196001</v>
+        <v>0.02178115747895042</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4248093087.364101</v>
+        <v>4787801221.294434</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1335876020124287</v>
+        <v>0.1093602833247636</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05220335941904782</v>
+        <v>0.04113374421029066</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3894726572.076727</v>
+        <v>3849719537.656289</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1473094324440677</v>
+        <v>0.1644062602598497</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02720925820460269</v>
+        <v>0.02573754564606652</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1746095794.465765</v>
+        <v>1294060396.258423</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1382156665475178</v>
+        <v>0.1199364386856107</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03580951783434219</v>
+        <v>0.03832295630961789</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3392702267.713759</v>
+        <v>4120169680.61891</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1577997559071487</v>
+        <v>0.1462390176254041</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02571057504203329</v>
+        <v>0.0204875052576703</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1265403263.104875</v>
+        <v>1386720322.453159</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1593692511574054</v>
+        <v>0.1587237099206535</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0242048118566226</v>
+        <v>0.02477841470693074</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3349881143.667954</v>
+        <v>4039946509.725138</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07876188208310476</v>
+        <v>0.0906750986831661</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04663304082356286</v>
+        <v>0.03954085716498229</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2998124214.922794</v>
+        <v>3477445520.272459</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1558981861251719</v>
+        <v>0.1959941472249266</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02580938603810248</v>
+        <v>0.02880180429755824</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3190626536.642046</v>
+        <v>2952129315.744971</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1165919381173403</v>
+        <v>0.1667677020574653</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02257794829019825</v>
+        <v>0.03119428586888085</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1576981711.003005</v>
+        <v>1280887203.214268</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1440181681391917</v>
+        <v>0.1908858975689912</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04959780009320744</v>
+        <v>0.037725376385069</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5202239811.296778</v>
+        <v>5292355932.174628</v>
       </c>
       <c r="F63" t="n">
-        <v>0.098117099590446</v>
+        <v>0.07902047841198105</v>
       </c>
       <c r="G63" t="n">
-        <v>0.029862236362292</v>
+        <v>0.04218808715552186</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4153197363.149536</v>
+        <v>4989615724.411173</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1222364799448332</v>
+        <v>0.1220953023794522</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0295051194729679</v>
+        <v>0.03429871950196735</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4440197046.601273</v>
+        <v>3758936328.715532</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1415696433377294</v>
+        <v>0.1453013797932785</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02121618901305011</v>
+        <v>0.02607958806380113</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4453376346.799444</v>
+        <v>3847467007.395063</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1311356497742432</v>
+        <v>0.1469473693535553</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03710371639579272</v>
+        <v>0.04735749207510254</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2781639312.997303</v>
+        <v>2513834501.634389</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08739227651228772</v>
+        <v>0.07943387807629014</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04499564888838713</v>
+        <v>0.04858992726248388</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5662408151.897763</v>
+        <v>5630344339.52589</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1118398562113558</v>
+        <v>0.1341818637825261</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04653662193114824</v>
+        <v>0.03984479320879931</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1612987642.517514</v>
+        <v>1699765325.272128</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1616718072323174</v>
+        <v>0.1457883440083614</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04933867214149738</v>
+        <v>0.05502601970483607</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3057421349.037375</v>
+        <v>2508423506.443114</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07243519268191279</v>
+        <v>0.1031090217635215</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0398601705294107</v>
+        <v>0.03209850171197103</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5145333230.406729</v>
+        <v>4934027262.405194</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1841521686935393</v>
+        <v>0.1693585511977351</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02402433770982451</v>
+        <v>0.02783783272976782</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1443760630.091786</v>
+        <v>1457684793.806403</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08932831531884851</v>
+        <v>0.07390980883674465</v>
       </c>
       <c r="G72" t="n">
-        <v>0.034996507270563</v>
+        <v>0.03288750309798338</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3261145091.246193</v>
+        <v>3545767956.060381</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1084510751233601</v>
+        <v>0.1091947565522952</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05175135123915023</v>
+        <v>0.04282401093482781</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3101703923.812437</v>
+        <v>2634855870.427575</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1338043433385742</v>
+        <v>0.1791987016118336</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02898352000691202</v>
+        <v>0.02599990026070639</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2087041670.420158</v>
+        <v>2339298762.938366</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1378790729720714</v>
+        <v>0.1096478523078229</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03412737135230592</v>
+        <v>0.03613186414359732</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5200933678.137624</v>
+        <v>3790635329.174595</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1067329024221975</v>
+        <v>0.07838676736078487</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02187931235634515</v>
+        <v>0.02798055144156519</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2079445807.83682</v>
+        <v>2295061472.20736</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1826381174688669</v>
+        <v>0.1468041832320914</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03021897658169121</v>
+        <v>0.02368289912142081</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3051623454.708915</v>
+        <v>3358201690.088966</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09723337581017368</v>
+        <v>0.1050819473370373</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0565001221389083</v>
+        <v>0.05285457156652961</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1749535345.561812</v>
+        <v>1904758274.036755</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1537850250737233</v>
+        <v>0.1714584547738916</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0267539824055032</v>
+        <v>0.02518766469754922</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3630658706.39456</v>
+        <v>4341640502.632445</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08426058258944021</v>
+        <v>0.09829124219786307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03657037064311029</v>
+        <v>0.03588046797646095</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5028021073.119356</v>
+        <v>5135775399.788731</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1180798615600725</v>
+        <v>0.1103433708287287</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03175677187219574</v>
+        <v>0.02519197313700292</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5298124250.268278</v>
+        <v>4080326211.521773</v>
       </c>
       <c r="F82" t="n">
-        <v>0.137689744874674</v>
+        <v>0.1677171824737806</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01832090816010153</v>
+        <v>0.02118281727336552</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1675150223.907718</v>
+        <v>1986125708.176878</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1123764137234048</v>
+        <v>0.1025969454062821</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03378354419262137</v>
+        <v>0.04239360279142897</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2069324229.309099</v>
+        <v>2343719205.997547</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1015140606642499</v>
+        <v>0.07586173917753362</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04694824973533298</v>
+        <v>0.03351840201024541</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3297916840.38958</v>
+        <v>2402805987.136861</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1807879056381899</v>
+        <v>0.1149317188505048</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05652671827115319</v>
+        <v>0.04673042665468271</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1705642427.755663</v>
+        <v>2569902259.03746</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1615504945993212</v>
+        <v>0.1166069749877452</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02171809676405508</v>
+        <v>0.02214880930282781</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1265798087.047831</v>
+        <v>1354434955.005226</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1246397650208879</v>
+        <v>0.1501346221350954</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03245467651659145</v>
+        <v>0.03246401926397911</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3307770209.423346</v>
+        <v>3497218266.106268</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1162966587713895</v>
+        <v>0.1633175665768827</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03738556297402714</v>
+        <v>0.03494164695722936</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2868482788.331949</v>
+        <v>3294524720.762404</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1294968786402211</v>
+        <v>0.1166246119329874</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03345564907989618</v>
+        <v>0.03391975698747132</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1622755049.38118</v>
+        <v>1931398874.717368</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09006698845153935</v>
+        <v>0.1188148072048546</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05511291628647708</v>
+        <v>0.04459165570868572</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1316948621.743289</v>
+        <v>1852842972.011511</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1609697097091079</v>
+        <v>0.1187396917543501</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0458948435026965</v>
+        <v>0.04528207934547874</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2531684660.904179</v>
+        <v>2020770668.56552</v>
       </c>
       <c r="F92" t="n">
-        <v>0.104786510099863</v>
+        <v>0.1057608366762175</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04082042371872924</v>
+        <v>0.03875368605289256</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4033432813.593542</v>
+        <v>3164306780.434762</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1290235128113597</v>
+        <v>0.1186855770250691</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0388476869286126</v>
+        <v>0.04625279644681066</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1969983378.592048</v>
+        <v>2383485060.811229</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1544025368903938</v>
+        <v>0.1195953932648798</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03109104769696101</v>
+        <v>0.02894511879291173</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2622355179.022344</v>
+        <v>2789083088.880858</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1136410104346326</v>
+        <v>0.0974695709794383</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03343167746195421</v>
+        <v>0.03858657049790556</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1533597258.882023</v>
+        <v>1456576777.327368</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08711582872721699</v>
+        <v>0.1306893183696712</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04049396246208918</v>
+        <v>0.03339907839010534</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5018206702.10629</v>
+        <v>5193039114.647754</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1330201107477363</v>
+        <v>0.1456039393323436</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02396076039310028</v>
+        <v>0.02399744276120025</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3829779712.774233</v>
+        <v>2669271187.166389</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09196165753391115</v>
+        <v>0.1156188342814848</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0316320177611062</v>
+        <v>0.031972091350625</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2241397464.415317</v>
+        <v>2867860644.554688</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1084266056642709</v>
+        <v>0.08981861839867601</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02783834301233069</v>
+        <v>0.02471992273367688</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4008590739.966223</v>
+        <v>3153047369.660405</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1581074424293233</v>
+        <v>0.1434651026514983</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02622093210161974</v>
+        <v>0.02469007572831657</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2800454648.444253</v>
+        <v>2752770463.453165</v>
       </c>
       <c r="F101" t="n">
-        <v>0.214692948382107</v>
+        <v>0.2230365139187851</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04075211644570724</v>
+        <v>0.0504432630783642</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_263.xlsx
+++ b/output/fit_clients/fit_round_263.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1559839027.535437</v>
+        <v>1960771897.753433</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1143372462463277</v>
+        <v>0.08481356619445685</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0313090336144845</v>
+        <v>0.04206368495014882</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2311666709.154986</v>
+        <v>2578865930.370782</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1648939783348445</v>
+        <v>0.1581830879300851</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0440563688636474</v>
+        <v>0.04211066276108228</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4880666759.641521</v>
+        <v>4012905452.415912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16628689346713</v>
+        <v>0.1196573855380021</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03125639880954548</v>
+        <v>0.03297299861750966</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>141</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3449052168.037347</v>
+        <v>3048754067.385415</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07316218423672596</v>
+        <v>0.0914393958507687</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03421487499153066</v>
+        <v>0.03572138507132819</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2776972629.362472</v>
+        <v>2117248258.672501</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1091920540091692</v>
+        <v>0.1414607826108776</v>
       </c>
       <c r="G6" t="n">
-        <v>0.053003307963836</v>
+        <v>0.04862397210399349</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2797808761.288396</v>
+        <v>2101093964.110216</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08087231268526786</v>
+        <v>0.07474853305419542</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04947375938179994</v>
+        <v>0.0300387104271642</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2877217481.542921</v>
+        <v>3511926636.438151</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1414723946193967</v>
+        <v>0.1391792737250549</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02492404200440647</v>
+        <v>0.02645150940869071</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2036802045.506634</v>
+        <v>1792906700.621038</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1859798414205157</v>
+        <v>0.1318670078200364</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03097389650874889</v>
+        <v>0.03638891695918759</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3753798307.638332</v>
+        <v>5666195228.278735</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2147036974906545</v>
+        <v>0.2055659797102014</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04204573964134695</v>
+        <v>0.04215421762856322</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>238</v>
+      </c>
+      <c r="J10" t="n">
+        <v>263</v>
+      </c>
+      <c r="K10" t="n">
+        <v>100.4306351458947</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4171868036.765659</v>
+        <v>3606415926.939683</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1199533256336319</v>
+        <v>0.1455647673501191</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0498838932207747</v>
+        <v>0.03365494431568337</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>107</v>
+      </c>
+      <c r="J11" t="n">
+        <v>263</v>
+      </c>
+      <c r="K11" t="n">
+        <v>97.54677601219885</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2351108326.829628</v>
+        <v>2434647800.29353</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1493905434492458</v>
+        <v>0.1391146595838828</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03769493713093301</v>
+        <v>0.03301374289984448</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5325902071.243618</v>
+        <v>3970982844.629134</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06500756161769677</v>
+        <v>0.07351116868812638</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02041432027344613</v>
+        <v>0.02457890156806137</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>133</v>
+      </c>
+      <c r="J13" t="n">
+        <v>263</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3823461484.681586</v>
+        <v>2569598132.074342</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1863850813965159</v>
+        <v>0.1331960634063482</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03053882364711022</v>
+        <v>0.03659390147052996</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>53</v>
+      </c>
+      <c r="J14" t="n">
+        <v>262</v>
+      </c>
+      <c r="K14" t="n">
+        <v>48.51235864613932</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1508380671.032148</v>
+        <v>1270810112.923176</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08997212204412418</v>
+        <v>0.1027050230857948</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04755494752722551</v>
+        <v>0.0321327487869646</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2507465371.749438</v>
+        <v>1763779323.386736</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08990193859024764</v>
+        <v>0.08307589217529886</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03669708284855091</v>
+        <v>0.04479731452038943</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4448344805.991093</v>
+        <v>4103734092.768906</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1347831719883323</v>
+        <v>0.1698209203172764</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03643068415166972</v>
+        <v>0.0483110688594896</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>126</v>
+      </c>
+      <c r="J17" t="n">
+        <v>262</v>
+      </c>
+      <c r="K17" t="n">
+        <v>91.35286520415983</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2962646780.522123</v>
+        <v>3943184021.123533</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1239081020665199</v>
+        <v>0.1332693472574852</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02934700562938942</v>
+        <v>0.02339229187782576</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>65</v>
+      </c>
+      <c r="J18" t="n">
+        <v>263</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>839599397.09438</v>
+        <v>1189574213.65351</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1235170832507728</v>
+        <v>0.1464962323346417</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01743452781311618</v>
+        <v>0.02302771933047711</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2264523714.662988</v>
+        <v>2401443769.617691</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1029101016432705</v>
+        <v>0.1382088200039849</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02191418330291539</v>
+        <v>0.02596138772390378</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1705014500.795137</v>
+        <v>1793088990.748021</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08489929939526752</v>
+        <v>0.07220348303917135</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03298992864133771</v>
+        <v>0.03169778631162978</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2550424266.381093</v>
+        <v>3642577966.260625</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1425287891763485</v>
+        <v>0.08721236209583139</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04011112149633346</v>
+        <v>0.04495748702239237</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>68</v>
+      </c>
+      <c r="J22" t="n">
+        <v>260</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1247559434.069408</v>
+        <v>1158744443.036729</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1489465607957668</v>
+        <v>0.1329264273302375</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05207733774180757</v>
+        <v>0.0460448131532297</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3896698462.137993</v>
+        <v>2502790043.111675</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09604961834432119</v>
+        <v>0.0964858249964248</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03652076179863536</v>
+        <v>0.0228507524704379</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>79</v>
+      </c>
+      <c r="J24" t="n">
+        <v>262</v>
+      </c>
+      <c r="K24" t="n">
+        <v>40.05046006379398</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1393926129.843046</v>
+        <v>1417461464.812277</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09622837011620418</v>
+        <v>0.08469241417245188</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03048739710647189</v>
+        <v>0.02131333938497934</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>946343249.1959165</v>
+        <v>1217173601.041039</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07763355433631756</v>
+        <v>0.08627240283517516</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02889690856577062</v>
+        <v>0.02809150040847272</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3711218808.108816</v>
+        <v>3865723831.385274</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1472765110557319</v>
+        <v>0.1163227584692311</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02619718157794952</v>
+        <v>0.02083334213285868</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>107</v>
+      </c>
+      <c r="J27" t="n">
+        <v>263</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3823462276.568186</v>
+        <v>3848070222.737858</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1399597865337244</v>
+        <v>0.1303715427951995</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04700461594273575</v>
+        <v>0.03895455509912285</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>53</v>
+      </c>
+      <c r="J28" t="n">
+        <v>263</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4692388796.373405</v>
+        <v>4353415263.345213</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1074079962611533</v>
+        <v>0.1298807395301533</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03834650408402406</v>
+        <v>0.04271069026616423</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>251</v>
+      </c>
+      <c r="J29" t="n">
+        <v>263</v>
+      </c>
+      <c r="K29" t="n">
+        <v>101.836172548341</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2279520159.381144</v>
+        <v>2359628960.513296</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1130287676473891</v>
+        <v>0.1167025719174981</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03970335598894001</v>
+        <v>0.02551693359548855</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1283184111.13189</v>
+        <v>1181325041.013163</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0790275343291291</v>
+        <v>0.08622420005269056</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05223363981348313</v>
+        <v>0.04707119850602717</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1815751914.851287</v>
+        <v>1253872496.84401</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08718823508127864</v>
+        <v>0.1104935154111647</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03469023418152416</v>
+        <v>0.0262896628362734</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2474095991.33888</v>
+        <v>2549059789.138189</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1824309520443066</v>
+        <v>0.1456450392328082</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04979567457383566</v>
+        <v>0.05693213851177943</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1033382805.299966</v>
+        <v>1215379351.091613</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1115793565279429</v>
+        <v>0.1009021598410918</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02591388432195588</v>
+        <v>0.02707514554303558</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1230690249.682276</v>
+        <v>1127679541.071644</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1015546304678699</v>
+        <v>0.07428861698604294</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03192635590460183</v>
+        <v>0.03721505279296575</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2022269054.119113</v>
+        <v>2908705591.234211</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1202900748766816</v>
+        <v>0.1335720935553886</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02785037648822962</v>
+        <v>0.02826802942163351</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2935760044.378418</v>
+        <v>2717503966.981786</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1002914147773757</v>
+        <v>0.09169008332396505</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02596253146570106</v>
+        <v>0.0384634941459009</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1743938519.731084</v>
+        <v>1773259684.965682</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07623173282044077</v>
+        <v>0.09936833726081028</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0315345857312159</v>
+        <v>0.0329168233732729</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2161694333.451691</v>
+        <v>2117490081.863847</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1613016776006695</v>
+        <v>0.1590083093275947</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02544076504606332</v>
+        <v>0.02125612421237199</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1275750939.347717</v>
+        <v>1349868254.682209</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1372345781296412</v>
+        <v>0.1214522840815648</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05091513698635004</v>
+        <v>0.05264569606837919</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1878027367.162068</v>
+        <v>2474993668.404836</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1571768371098437</v>
+        <v>0.1560763150192643</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04279416535944831</v>
+        <v>0.03074081919105248</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3989172728.777078</v>
+        <v>2685299221.927305</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09860416046649061</v>
+        <v>0.1232414921621825</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04331254919691157</v>
+        <v>0.03285192971163576</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>110</v>
+      </c>
+      <c r="J42" t="n">
+        <v>262</v>
+      </c>
+      <c r="K42" t="n">
+        <v>51.83440205203052</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2004934672.978131</v>
+        <v>2321766433.534632</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1791308110422797</v>
+        <v>0.1851670267359511</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02293638534302746</v>
+        <v>0.02217002134938302</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2284030772.210163</v>
+        <v>1543111626.88766</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08535687999879639</v>
+        <v>0.09574482210618274</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03088221741849962</v>
+        <v>0.02548712566281375</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1818599025.013783</v>
+        <v>1780249430.520384</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1758931336052001</v>
+        <v>0.1506044897741149</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05161046695994478</v>
+        <v>0.03472304097848333</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4685272291.376655</v>
+        <v>4043384780.349995</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1698549367723121</v>
+        <v>0.1141611640416864</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06063160620020414</v>
+        <v>0.03974909942864226</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>152</v>
+      </c>
+      <c r="J46" t="n">
+        <v>263</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5073730536.910867</v>
+        <v>3315090647.589839</v>
       </c>
       <c r="F47" t="n">
-        <v>0.191671345392183</v>
+        <v>0.1542517008595091</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04692282740034165</v>
+        <v>0.04130482717429856</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>119</v>
+      </c>
+      <c r="J47" t="n">
+        <v>262</v>
+      </c>
+      <c r="K47" t="n">
+        <v>61.36133945796686</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2907730686.213987</v>
+        <v>4104060267.731278</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0912683739069123</v>
+        <v>0.07456097601417307</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03482537129416217</v>
+        <v>0.02844687232970218</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>129</v>
+      </c>
+      <c r="J48" t="n">
+        <v>263</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1506994532.175797</v>
+        <v>1887188642.18546</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1612077470527205</v>
+        <v>0.1704438128244472</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03233245904676793</v>
+        <v>0.04116363896329661</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3990597385.546864</v>
+        <v>3452358575.12005</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1438952549217989</v>
+        <v>0.1339074116517097</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03899085481200319</v>
+        <v>0.04730267355798793</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>84</v>
+      </c>
+      <c r="J50" t="n">
+        <v>262</v>
+      </c>
+      <c r="K50" t="n">
+        <v>84.15569420779505</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1154634877.395141</v>
+        <v>1386002658.825429</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1626539554622483</v>
+        <v>0.1238231946177743</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03709839205009793</v>
+        <v>0.0512401443123117</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4220051309.047452</v>
+        <v>3715844550.93002</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1161331248050554</v>
+        <v>0.1125589412948179</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0427675424181133</v>
+        <v>0.04863719428731213</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>167</v>
+      </c>
+      <c r="J52" t="n">
+        <v>263</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2350504902.937698</v>
+        <v>3383037215.926452</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1519131980046215</v>
+        <v>0.2039049215394033</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02178115747895042</v>
+        <v>0.03200722073411887</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>36</v>
+      </c>
+      <c r="J53" t="n">
+        <v>259</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4787801221.294434</v>
+        <v>3497679209.914075</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1093602833247636</v>
+        <v>0.1111812174685312</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04113374421029066</v>
+        <v>0.04691303194756258</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>139</v>
+      </c>
+      <c r="J54" t="n">
+        <v>261</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3849719537.656289</v>
+        <v>3322734376.607934</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1644062602598497</v>
+        <v>0.1590346262941104</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02573754564606652</v>
+        <v>0.01959228208783579</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>118</v>
+      </c>
+      <c r="J55" t="n">
+        <v>262</v>
+      </c>
+      <c r="K55" t="n">
+        <v>73.00411071996345</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1294060396.258423</v>
+        <v>1287650280.075173</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1199364386856107</v>
+        <v>0.137864070438313</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03832295630961789</v>
+        <v>0.05016623515514342</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4120169680.61891</v>
+        <v>4271297180.162644</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1462390176254041</v>
+        <v>0.15760371642757</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0204875052576703</v>
+        <v>0.02569633244903823</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>105</v>
+      </c>
+      <c r="J57" t="n">
+        <v>263</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1386720322.453159</v>
+        <v>1511985724.719232</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1587237099206535</v>
+        <v>0.1549596830707086</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02477841470693074</v>
+        <v>0.03384178142377434</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4039946509.725138</v>
+        <v>5172891769.027815</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0906750986831661</v>
+        <v>0.1278401186764545</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03954085716498229</v>
+        <v>0.04107202804310485</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>127</v>
+      </c>
+      <c r="J59" t="n">
+        <v>262</v>
+      </c>
+      <c r="K59" t="n">
+        <v>90.93559721003767</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3477445520.272459</v>
+        <v>3264408899.722178</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1959941472249266</v>
+        <v>0.1715847421928906</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02880180429755824</v>
+        <v>0.02251751116388359</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>39</v>
+      </c>
+      <c r="J60" t="n">
+        <v>262</v>
+      </c>
+      <c r="K60" t="n">
+        <v>81.82992684834667</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2952129315.744971</v>
+        <v>2335446669.209012</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1667677020574653</v>
+        <v>0.1561882417995011</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03119428586888085</v>
+        <v>0.0222245810432021</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1280887203.214268</v>
+        <v>1279967508.59703</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1908858975689912</v>
+        <v>0.1284334045931007</v>
       </c>
       <c r="G62" t="n">
-        <v>0.037725376385069</v>
+        <v>0.04590339937479276</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5292355932.174628</v>
+        <v>3644259082.752885</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07902047841198105</v>
+        <v>0.1043697782041326</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04218808715552186</v>
+        <v>0.03004888325143778</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>128</v>
+      </c>
+      <c r="J63" t="n">
+        <v>261</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4989615724.411173</v>
+        <v>3662787219.64227</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1220953023794522</v>
+        <v>0.134308294486654</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03429871950196735</v>
+        <v>0.02691274351748047</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>129</v>
+      </c>
+      <c r="J64" t="n">
+        <v>263</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3758936328.715532</v>
+        <v>4593298037.803628</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1453013797932785</v>
+        <v>0.1737956460354011</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02607958806380113</v>
+        <v>0.02495969757703122</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>211</v>
+      </c>
+      <c r="J65" t="n">
+        <v>263</v>
+      </c>
+      <c r="K65" t="n">
+        <v>97.53108305386966</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3847467007.395063</v>
+        <v>3998526024.909583</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1469473693535553</v>
+        <v>0.1113914551339443</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04735749207510254</v>
+        <v>0.04502317713452702</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>130</v>
+      </c>
+      <c r="J66" t="n">
+        <v>262</v>
+      </c>
+      <c r="K66" t="n">
+        <v>88.2001926206873</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2513834501.634389</v>
+        <v>2373981907.398204</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07943387807629014</v>
+        <v>0.09105145361689761</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04858992726248388</v>
+        <v>0.05148606198719372</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5630344339.52589</v>
+        <v>5191095275.921047</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1341818637825261</v>
+        <v>0.1000727135120121</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03984479320879931</v>
+        <v>0.04054643309687023</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>134</v>
+      </c>
+      <c r="J68" t="n">
+        <v>263</v>
+      </c>
+      <c r="K68" t="n">
+        <v>97.85653932363347</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1699765325.272128</v>
+        <v>2397332648.368289</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1457883440083614</v>
+        <v>0.1388050081932702</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05502601970483607</v>
+        <v>0.05457664423699293</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2508423506.443114</v>
+        <v>3478119781.077391</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1031090217635215</v>
+        <v>0.1006481892411631</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03209850171197103</v>
+        <v>0.04738794588950797</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4934027262.405194</v>
+        <v>5479401166.25574</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1693585511977351</v>
+        <v>0.1509465969888075</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02783783272976782</v>
+        <v>0.02548982423991882</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>198</v>
+      </c>
+      <c r="J71" t="n">
+        <v>263</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1457684793.806403</v>
+        <v>2176634788.733588</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07390980883674465</v>
+        <v>0.08944990315905131</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03288750309798338</v>
+        <v>0.04726098184357848</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3545767956.060381</v>
+        <v>3170368078.804753</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1091947565522952</v>
+        <v>0.08898532739904949</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04282401093482781</v>
+        <v>0.03284887039046852</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2634855870.427575</v>
+        <v>3192395564.915293</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1791987016118336</v>
+        <v>0.1573580374834074</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02599990026070639</v>
+        <v>0.03230698797948132</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>73</v>
+      </c>
+      <c r="J74" t="n">
+        <v>254</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2339298762.938366</v>
+        <v>2283062814.815575</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1096478523078229</v>
+        <v>0.1075626200950072</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03613186414359732</v>
+        <v>0.03759777179064262</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3790635329.174595</v>
+        <v>4983707798.305454</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07838676736078487</v>
+        <v>0.09279040498534379</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02798055144156519</v>
+        <v>0.03009838638141955</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>123</v>
+      </c>
+      <c r="J76" t="n">
+        <v>262</v>
+      </c>
+      <c r="K76" t="n">
+        <v>88.15018124938821</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2295061472.20736</v>
+        <v>2223667928.863061</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1468041832320914</v>
+        <v>0.121168756786896</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02368289912142081</v>
+        <v>0.02361289291150293</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3358201690.088966</v>
+        <v>3812435878.288308</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1050819473370373</v>
+        <v>0.08681139828798771</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05285457156652961</v>
+        <v>0.04901179092689769</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>132</v>
+      </c>
+      <c r="J78" t="n">
+        <v>262</v>
+      </c>
+      <c r="K78" t="n">
+        <v>97.30782124704655</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1904758274.036755</v>
+        <v>1637310825.530386</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1714584547738916</v>
+        <v>0.1289746459194182</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02518766469754922</v>
+        <v>0.02743716833040467</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4341640502.632445</v>
+        <v>4574985689.609449</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09829124219786307</v>
+        <v>0.09824679395466646</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03588046797646095</v>
+        <v>0.03262121256838534</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>128</v>
+      </c>
+      <c r="J80" t="n">
+        <v>263</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5135775399.788731</v>
+        <v>3669791830.879103</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1103433708287287</v>
+        <v>0.09628715311905718</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02519197313700292</v>
+        <v>0.02844489075189891</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>120</v>
+      </c>
+      <c r="J81" t="n">
+        <v>263</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4080326211.521773</v>
+        <v>4930658492.51018</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1677171824737806</v>
+        <v>0.1777159877891655</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02118281727336552</v>
+        <v>0.02839847418797961</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>197</v>
+      </c>
+      <c r="J82" t="n">
+        <v>263</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1986125708.176878</v>
+        <v>1675913758.011123</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1025969454062821</v>
+        <v>0.1081674544227962</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04239360279142897</v>
+        <v>0.02924716489640014</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2343719205.997547</v>
+        <v>2354592592.998293</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07586173917753362</v>
+        <v>0.1193402681979001</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03351840201024541</v>
+        <v>0.03459517708687713</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2402805987.136861</v>
+        <v>3624825703.15028</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1149317188505048</v>
+        <v>0.1558801737826563</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04673042665468271</v>
+        <v>0.03667974610032679</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2569902259.03746</v>
+        <v>2800163638.037923</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1166069749877452</v>
+        <v>0.1658914134364046</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02214880930282781</v>
+        <v>0.02291090183406563</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1354434955.005226</v>
+        <v>990213791.8364558</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1501346221350954</v>
+        <v>0.1762381252862808</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03246401926397911</v>
+        <v>0.03504838182131464</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3497218266.106268</v>
+        <v>2463601282.608675</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1633175665768827</v>
+        <v>0.1643977403034051</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03494164695722936</v>
+        <v>0.03075825051313419</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3294524720.762404</v>
+        <v>2438403312.534685</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1166246119329874</v>
+        <v>0.09737375625775796</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03391975698747132</v>
+        <v>0.02831133862511624</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1931398874.717368</v>
+        <v>1921353488.516468</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1188148072048546</v>
+        <v>0.1362924365309994</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04459165570868572</v>
+        <v>0.05213864350594478</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1852842972.011511</v>
+        <v>1858671381.987508</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1187396917543501</v>
+        <v>0.1826613858568394</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04528207934547874</v>
+        <v>0.05797348560557937</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2020770668.56552</v>
+        <v>2288602518.34654</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1057608366762175</v>
+        <v>0.07187835731670805</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03875368605289256</v>
+        <v>0.04387260526415599</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3164306780.434762</v>
+        <v>4314939231.420306</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1186855770250691</v>
+        <v>0.1263635637530088</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04625279644681066</v>
+        <v>0.051196721425882</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>115</v>
+      </c>
+      <c r="J93" t="n">
+        <v>262</v>
+      </c>
+      <c r="K93" t="n">
+        <v>95.45498118623526</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2383485060.811229</v>
+        <v>1615791511.84595</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1195953932648798</v>
+        <v>0.1018533659761153</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02894511879291173</v>
+        <v>0.02828361271250247</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2789083088.880858</v>
+        <v>2533215012.388302</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0974695709794383</v>
+        <v>0.08745021743395746</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03858657049790556</v>
+        <v>0.04469307161076776</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1456576777.327368</v>
+        <v>1805423276.824055</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1306893183696712</v>
+        <v>0.1024923360885016</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03339907839010534</v>
+        <v>0.02875709563078858</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5193039114.647754</v>
+        <v>4391522276.80199</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1456039393323436</v>
+        <v>0.1360301489440746</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02399744276120025</v>
+        <v>0.02535186011463486</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>130</v>
+      </c>
+      <c r="J97" t="n">
+        <v>262</v>
+      </c>
+      <c r="K97" t="n">
+        <v>97.18188143476186</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2669271187.166389</v>
+        <v>2836592464.95059</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1156188342814848</v>
+        <v>0.10207216347244</v>
       </c>
       <c r="G98" t="n">
-        <v>0.031972091350625</v>
+        <v>0.03233192682378994</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>64</v>
+      </c>
+      <c r="J98" t="n">
+        <v>260</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,22 +3928,31 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2867860644.554688</v>
+        <v>2118498709.006172</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08981861839867601</v>
+        <v>0.1476568241128079</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02471992273367688</v>
+        <v>0.03353219268494839</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="n">
+        <v>34.98855656572385</v>
       </c>
     </row>
     <row r="100">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3153047369.660405</v>
+        <v>4237383400.892102</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1434651026514983</v>
+        <v>0.1667961445649105</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02469007572831657</v>
+        <v>0.01886210333727503</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>110</v>
+      </c>
+      <c r="J100" t="n">
+        <v>263</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2752770463.453165</v>
+        <v>3482124938.719543</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2230365139187851</v>
+        <v>0.141974860034895</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0504432630783642</v>
+        <v>0.03949724227580165</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>20</v>
+      </c>
+      <c r="J101" t="n">
+        <v>259</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
